--- a/natmiOut/OldD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H2">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I2">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J2">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.0970441926298</v>
+        <v>108.170325</v>
       </c>
       <c r="N2">
-        <v>83.0970441926298</v>
+        <v>324.510975</v>
       </c>
       <c r="O2">
-        <v>0.326852931499477</v>
+        <v>0.3858768734748398</v>
       </c>
       <c r="P2">
-        <v>0.326852931499477</v>
+        <v>0.3858768734748398</v>
       </c>
       <c r="Q2">
-        <v>110.9174554788589</v>
+        <v>150.20221241235</v>
       </c>
       <c r="R2">
-        <v>110.9174554788589</v>
+        <v>1351.81991171115</v>
       </c>
       <c r="S2">
-        <v>0.1151142964556048</v>
+        <v>0.1359647432081492</v>
       </c>
       <c r="T2">
-        <v>0.1151142964556048</v>
+        <v>0.1359647432081492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H3">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I3">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J3">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.264349626804</v>
+        <v>124.5871326666667</v>
       </c>
       <c r="N3">
-        <v>124.264349626804</v>
+        <v>373.761398</v>
       </c>
       <c r="O3">
-        <v>0.4887799241359688</v>
+        <v>0.4444406839732469</v>
       </c>
       <c r="P3">
-        <v>0.4887799241359688</v>
+        <v>0.444440683973247</v>
       </c>
       <c r="Q3">
-        <v>165.8673374156294</v>
+        <v>172.9981209231302</v>
       </c>
       <c r="R3">
-        <v>165.8673374156294</v>
+        <v>1556.983088308172</v>
       </c>
       <c r="S3">
-        <v>0.1721433454196385</v>
+        <v>0.1565998576787391</v>
       </c>
       <c r="T3">
-        <v>0.1721433454196385</v>
+        <v>0.1565998576787391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33479423433808</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H4">
-        <v>1.33479423433808</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I4">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542377</v>
       </c>
       <c r="J4">
-        <v>0.3521898853025553</v>
+        <v>0.3523526610542378</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.8723492019677</v>
+        <v>47.56596266666666</v>
       </c>
       <c r="N4">
-        <v>46.8723492019677</v>
+        <v>142.697888</v>
       </c>
       <c r="O4">
-        <v>0.1843671443645542</v>
+        <v>0.1696824425519132</v>
       </c>
       <c r="P4">
-        <v>0.1843671443645542</v>
+        <v>0.1696824425519133</v>
       </c>
       <c r="Q4">
-        <v>62.5649414646676</v>
+        <v>66.04873220133686</v>
       </c>
       <c r="R4">
-        <v>62.5649414646676</v>
+        <v>594.4385898120319</v>
       </c>
       <c r="S4">
-        <v>0.06493224342731201</v>
+        <v>0.05978806016734945</v>
       </c>
       <c r="T4">
-        <v>0.06493224342731201</v>
+        <v>0.05978806016734946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H5">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I5">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J5">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>83.0970441926298</v>
+        <v>108.170325</v>
       </c>
       <c r="N5">
-        <v>83.0970441926298</v>
+        <v>324.510975</v>
       </c>
       <c r="O5">
-        <v>0.326852931499477</v>
+        <v>0.3858768734748398</v>
       </c>
       <c r="P5">
-        <v>0.326852931499477</v>
+        <v>0.3858768734748398</v>
       </c>
       <c r="Q5">
-        <v>204.019060609822</v>
+        <v>276.0815339994</v>
       </c>
       <c r="R5">
-        <v>204.019060609822</v>
+        <v>2484.733805994601</v>
       </c>
       <c r="S5">
-        <v>0.2117386350438722</v>
+        <v>0.2499121302666906</v>
       </c>
       <c r="T5">
-        <v>0.2117386350438722</v>
+        <v>0.2499121302666907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H6">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I6">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J6">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>124.264349626804</v>
+        <v>124.5871326666667</v>
       </c>
       <c r="N6">
-        <v>124.264349626804</v>
+        <v>373.761398</v>
       </c>
       <c r="O6">
-        <v>0.4887799241359688</v>
+        <v>0.4444406839732469</v>
       </c>
       <c r="P6">
-        <v>0.4887799241359688</v>
+        <v>0.444440683973247</v>
       </c>
       <c r="Q6">
-        <v>305.0926314464459</v>
+        <v>317.9819114271875</v>
       </c>
       <c r="R6">
-        <v>305.0926314464459</v>
+        <v>2861.837202844688</v>
       </c>
       <c r="S6">
-        <v>0.3166365787163302</v>
+        <v>0.2878408262945079</v>
       </c>
       <c r="T6">
-        <v>0.3166365787163302</v>
+        <v>0.2878408262945079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.45519034512081</v>
+        <v>2.552285333333333</v>
       </c>
       <c r="H7">
-        <v>2.45519034512081</v>
+        <v>7.656856</v>
       </c>
       <c r="I7">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457622</v>
       </c>
       <c r="J7">
-        <v>0.6478101146974447</v>
+        <v>0.6476473389457623</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.8723492019677</v>
+        <v>47.56596266666666</v>
       </c>
       <c r="N7">
-        <v>46.8723492019677</v>
+        <v>142.697888</v>
       </c>
       <c r="O7">
-        <v>0.1843671443645542</v>
+        <v>0.1696824425519132</v>
       </c>
       <c r="P7">
-        <v>0.1843671443645542</v>
+        <v>0.1696824425519133</v>
       </c>
       <c r="Q7">
-        <v>115.0805392138022</v>
+        <v>121.4019088800142</v>
       </c>
       <c r="R7">
-        <v>115.0805392138022</v>
+        <v>1092.617179920128</v>
       </c>
       <c r="S7">
-        <v>0.1194349009372422</v>
+        <v>0.1098943823845638</v>
       </c>
       <c r="T7">
-        <v>0.1194349009372422</v>
+        <v>0.1098943823845638</v>
       </c>
     </row>
   </sheetData>
